--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -493,138 +493,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model', SVC(C=5, class_weight='balanced', random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7690858770858771</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'scaler': None, 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 0 1 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6984502161523454</v>
+        <v>0.6792559523809524</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02561698255943601</v>
+        <v>0.0354950218135263</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6063868339952353</v>
+        <v>0.5683333333333332</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06096333768698921</v>
+        <v>0.06457409615698313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model', SVC(C=1, class_weight='balanced', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7464711632453568</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'scaler': None, 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 0 1 1 1 1 1 0]</t>
+          <t>[1 1 0 1 1 0 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6889450627837839</v>
+        <v>0.6698511904761906</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02641120824042091</v>
+        <v>0.04027462134673227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6061938757980884</v>
+        <v>0.5591071428571428</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05286138093537955</v>
+        <v>0.06360185880433948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model', SVC(C=0.0001, kernel='linear', random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7467914438502673</v>
+        <v>0.6380952380952382</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'scaler': None, 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.692852273543176</v>
+        <v>0.6598065476190476</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02681831170396743</v>
+        <v>0.02963008882387964</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5859890193341414</v>
+        <v>0.536845238095238</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05458922713856652</v>
+        <v>0.06408047362222596</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,108 +493,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
-                ('model', SVC(C=5, class_weight='balanced', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+                ('model',
+                 SVC(C=3, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 5}</t>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 3}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 0 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 0 0 0 1 1 0 1 0 0 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6792559523809524</v>
+        <v>0.6776371308016877</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0354950218135263</v>
+        <v>0.03490433830610162</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5683333333333332</v>
+        <v>0.5885473176612416</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06457409615698313</v>
+        <v>0.06210767213185699</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
-                ('model', SVC(C=1, class_weight='balanced', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642ef7c0&gt;),
+                ('model',
+                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6414dbb0&gt;, 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 1 0 0 0 0 0 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6698511904761906</v>
+        <v>0.6609465737514517</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04027462134673227</v>
+        <v>0.02026234985050712</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5591071428571428</v>
+        <v>0.5414634146341463</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06360185880433948</v>
+        <v>0.05748756504422877</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
-                ('model', SVC(C=0.0001, kernel='linear', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6380952380952382</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -603,23 +611,118 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 0 1 0 1 1]</t>
+          <t>[0 1 1 0 1 0 1 1 1 0 0 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6598065476190476</v>
+        <v>0.6214888487040385</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02963008882387964</v>
+        <v>0.02568081191328808</v>
       </c>
       <c r="J4" t="n">
-        <v>0.536845238095238</v>
+        <v>0.5398432790837855</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06408047362222596</v>
+        <v>0.05926201853284085</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6422757475083056</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.02675775831887378</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5428571428571429</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.05537779399289352</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
+                     random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6761904761904761</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6605758582502769</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.03745735103361374</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5551495016611295</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05991010253942086</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,236 +493,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
-                ('model',
-                 SVC(C=3, class_weight='balanced', kernel='sigmoid',
-                     random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.7670231729055259</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 0 0 0 0 1 1 0 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6776371308016877</v>
+        <v>0.7388299380004053</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03490433830610162</v>
+        <v>0.01507547286701058</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5885473176612416</v>
+        <v>0.6543098348017572</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06210767213185699</v>
+        <v>0.04703397095277601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a642ef7c0&gt;),
-                ('model',
-                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
-                     random_state=42))])</t>
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.619047619047619</v>
+        <v>0.7680592691622105</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6414dbb0&gt;, 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6609465737514517</v>
+        <v>0.690576577100702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02026234985050712</v>
+        <v>0.03272899289227198</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5414634146341463</v>
+        <v>0.6099721407909823</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05748756504422877</v>
+        <v>0.0712178530056998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
-                     random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 1 1 1 0 0 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6214888487040385</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02568081191328808</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5398432790837855</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.05926201853284085</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
-                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6857142857142857</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 1 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6422757475083056</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02675775831887378</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5428571428571429</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05537779399289352</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
-                     random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6761904761904761</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4615384615384615</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 1 1 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6605758582502769</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.03745735103361374</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5551495016611295</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.05991010253942086</v>
+                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7327859237536657</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6355765263166623</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02228421641621716</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5280158856159003</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.05459755924445731</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,27 +493,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
+                ('model', SVC(C=0.0001, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7670231729055259</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -522,92 +520,88 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7388299380004053</v>
+        <v>0.6328824097845098</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01507547286701058</v>
+        <v>0.01708959768780349</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6543098348017572</v>
+        <v>0.4433071883182177</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04703397095277601</v>
+        <v>0.08682975180651982</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
                 ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7680592691622105</v>
+        <v>0.7190476190476189</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6250000000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 0 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.690576577100702</v>
+        <v>0.7129663771120904</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03272899289227198</v>
+        <v>0.01130241174125677</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6099721407909823</v>
+        <v>0.5816938380247204</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0712178530056998</v>
+        <v>0.06299202040350979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
+                ('model', SVC(C=0.0001, random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7327859237536657</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,19 +610,154 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6355765263166623</v>
+        <v>0.8050809400340946</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02228421641621716</v>
+        <v>0.01068374748543425</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5280158856159003</v>
+        <v>0.7146028942462765</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05459755924445731</v>
+        <v>0.06134448528836003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
+                ('model', SVC(C=0.0001, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7144071043790625</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0149111093856615</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5663877813363107</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07827203082257041</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
+                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7109453781512605</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>23</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.637666676215525</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01598203275663552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.500981040609717</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07334775896952352</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector', PCA(n_components=30)),
+                ('model', SVC(C=0.0001, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>99</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7893394916138099</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01284668880871283</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6983146698073168</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.06799134829202771</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,9 +493,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=0.0001, random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model', SVC(C=0.001, kernel='poly', random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -503,7 +504,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__kernel': 'poly', 'model__class_weight': None, 'model__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -523,36 +524,35 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6328824097845098</v>
+        <v>0.5897874660221971</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01708959768780349</v>
+        <v>0.0189127892260266</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4433071883182177</v>
+        <v>0.4528239439882377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08682975180651982</v>
+        <v>0.07519899278008149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=3, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7190476190476189</v>
+        <v>0.7522549019607843</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6250000000000001</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -561,92 +561,96 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7129663771120904</v>
+        <v>0.6875288534852285</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01130241174125677</v>
+        <v>0.02029937872198562</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5816938380247204</v>
+        <v>0.5812368231163066</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06299202040350979</v>
+        <v>0.06441672829688601</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=0.0001, random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model', SVC(C=1, kernel='linear', random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7465293040293041</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 1}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8050809400340946</v>
+        <v>0.6395470276861234</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01068374748543425</v>
+        <v>0.01882814261043839</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7146028942462765</v>
+        <v>0.541722893581939</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06134448528836003</v>
+        <v>0.07236148321336514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=0.0001, random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7865592903828198</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -655,109 +659,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7144071043790625</v>
+        <v>0.7595639712464928</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0149111093856615</v>
+        <v>0.02002606870670441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5663877813363107</v>
+        <v>0.7034252263835447</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07827203082257041</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7109453781512605</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>23</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.637666676215525</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01598203275663552</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.500981040609717</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.07334775896952352</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector', PCA(n_components=30)),
-                ('model', SVC(C=0.0001, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>{'selector__n_components': 30, 'selector': PCA(n_components=30), 'scaler': StandardScaler(), 'model__kernel': 'rbf', 'model__class_weight': None, 'model__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>99</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7893394916138099</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.01284668880871283</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6983146698073168</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.06799134829202771</v>
+        <v>0.07372303721818003</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -524,35 +524,39 @@
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5897874660221971</v>
+        <v>0.5889630819184842</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0189127892260266</v>
+        <v>0.02037244586123459</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4528239439882377</v>
+        <v>0.4585093003401826</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07519899278008149</v>
+        <v>0.07788852758599678</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91ca0dc4f0&gt;),
+                ('model',
+                 SVC(C=1, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7522549019607843</v>
+        <v>0.7565567765567764</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c9d73580&gt;, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.75</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -561,23 +565,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
+          <t>[1 1 1 1 1 0 1 1 1 0 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6875288534852285</v>
+        <v>0.6850921714225813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02029937872198562</v>
+        <v>0.01953896842368958</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5812368231163066</v>
+        <v>0.5841354729420906</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06441672829688601</v>
+        <v>0.06679899670194876</v>
       </c>
     </row>
     <row r="4">
@@ -614,39 +618,37 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6395470276861234</v>
+        <v>0.6281890442110398</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01882814261043839</v>
+        <v>0.01963124591775743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.541722893581939</v>
+        <v>0.541458159569189</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07236148321336514</v>
+        <v>0.07022563240921781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
-                     random_state=42))])</t>
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91c9d8d820&gt;),
+                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7865592903828198</v>
+        <v>0.7954761904761904</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91ca1954c0&gt;, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -655,23 +657,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7595639712464928</v>
+        <v>0.7510527510511276</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02002606870670441</v>
+        <v>0.01922681041905444</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7034252263835447</v>
+        <v>0.7083854708200298</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07372303721818003</v>
+        <v>0.07029864901140509</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -493,22 +493,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model', SVC(C=0.001, kernel='poly', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model', SVC(C=5, kernel='poly', random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.7062745098039216</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__kernel': 'poly', 'model__class_weight': None, 'model__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'poly', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -517,46 +515,42 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5889630819184842</v>
+        <v>0.6051402927054031</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02037244586123459</v>
+        <v>0.02169729297097148</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4585093003401826</v>
+        <v>0.4641835471717825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07788852758599678</v>
+        <v>0.07979009093911736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91ca0dc4f0&gt;),
-                ('model',
-                 SVC(C=1, class_weight='balanced', kernel='sigmoid',
-                     random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7565567765567764</v>
+        <v>0.7522549019607843</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c9d73580&gt;, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 1}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -565,40 +559,40 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 1 1 1 0 1 0]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6850921714225813</v>
+        <v>0.6921889557081101</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01953896842368958</v>
+        <v>0.01881581329958663</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5841354729420906</v>
+        <v>0.5907850104960398</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06679899670194876</v>
+        <v>0.06027122592202517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model', SVC(C=1, kernel='linear', random_state=42))])</t>
+                ('model', SVC(C=3, kernel='linear', random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7465293040293041</v>
+        <v>0.7316391941391942</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 3}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -618,37 +612,37 @@
         <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6281890442110398</v>
+        <v>0.6119198291237338</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01963124591775743</v>
+        <v>0.02245248650787208</v>
       </c>
       <c r="J4" t="n">
-        <v>0.541458159569189</v>
+        <v>0.5178457111515935</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07022563240921781</v>
+        <v>0.07447161774120849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91c9d8d820&gt;),
-                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7954761904761904</v>
+        <v>0.7933006535947712</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91ca1954c0&gt;, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -657,23 +651,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 1 0 0 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7510527510511276</v>
+        <v>0.7720355329864048</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01922681041905444</v>
+        <v>0.021648373137596</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7083854708200298</v>
+        <v>0.7027753742989037</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07029864901140509</v>
+        <v>0.0757205638019951</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -494,180 +514,285 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model', SVC(C=5, kernel='poly', random_state=42))])</t>
+                ('model', SVC(C=5, class_weight='balanced', random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7062745098039216</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'poly', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 5}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 1 0 1 1 1 1]</t>
-        </is>
+        <v>0.6795367153943095</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5364411167536167</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6382978723404256</v>
       </c>
       <c r="G2" t="n">
+        <v>0.6320134184083219</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4932014715608465</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7798313492063492</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6450833333333333</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6051402927054031</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.02169729297097148</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4641835471717825</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.07979009093911736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7522549019607843</v>
+        <v>0.7207142857142858</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
+        <v>0.6260414013189817</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4867197293447293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8076923076923077</v>
       </c>
       <c r="G3" t="n">
+        <v>0.6057127092645993</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4497985284391534</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6953437499999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5835416666666667</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6921889557081101</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01881581329958663</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5907850104960398</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.06027122592202517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model', SVC(C=3, kernel='linear', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7316391941391942</v>
+        <v>0.7521428571428571</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': StandardScaler(), 'model__kernel': 'linear', 'model__class_weight': None, 'model__C': 3}</t>
+          <t>{'selector': None, 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
-        </is>
+        <v>0.6699718221911494</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.517059857966108</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5777777777777778</v>
       </c>
       <c r="G4" t="n">
+        <v>0.6547855553499173</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4891123511904762</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7490021929824562</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6024166666666667</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6119198291237338</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02245248650787208</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5178457111515935</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07447161774120849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 SVC(C=5, class_weight='balanced', kernel='sigmoid',
-                     random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model', SVC(C=1, class_weight='balanced', random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7933006535947712</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 5}</t>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 1}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.6776677790535152</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5443849194786695</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6666666666666667</v>
       </c>
       <c r="G5" t="n">
+        <v>0.6289911268915526</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4799864417989418</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7810962301587302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>99</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.7720355329864048</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.021648373137596</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7027753742989037</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0757205638019951</v>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7239285714285714</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7936093157032132</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6437831277518777</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.725395209189486</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5521510416666666</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9106770833333333</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8117083333333334</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1 0 1 1 0 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/SVC.xlsx
+++ b/results/SVC.xlsx
@@ -513,53 +513,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model', SVC(C=5, class_weight='balanced', random_state=42))])</t>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 SVC(C=1, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7733333333333333</v>
+        <v>0.7549999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 5}</t>
+          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 1}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6795367153943095</v>
+        <v>0.7485513576894436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5364411167536167</v>
+        <v>0.6367576740389239</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6382978723404256</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6320134184083219</v>
+        <v>0.6921155419927071</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4932014715608465</v>
+        <v>0.583012566137566</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7798313492063492</v>
+        <v>0.8741710992907802</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6450833333333333</v>
+        <v>0.7573611111111112</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6818181818181818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 1 0 1 1 1]</t>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -569,53 +571,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7207142857142858</v>
+        <v>0.76</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6260414013189817</v>
+        <v>0.7473808081477757</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4867197293447293</v>
+        <v>0.6282883516946016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6057127092645993</v>
+        <v>0.6858006110630782</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4497985284391534</v>
+        <v>0.6013684689153439</v>
       </c>
       <c r="I3" t="n">
-        <v>0.75</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6953437499999999</v>
+        <v>0.8748670212765959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5835416666666667</v>
+        <v>0.728576388888889</v>
       </c>
       <c r="L3" t="n">
         <v>0.875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 1 0 0 1 1 1 1 0 0 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 1 0 1 1 0]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -624,171 +628,175 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 SVC(C=0.0001, class_weight='balanced', kernel='linear',
-                     random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7521428571428571</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__kernel': 'linear', 'model__class_weight': 'balanced', 'model__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6699718221911494</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.517059857966108</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5777777777777778</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6547855553499173</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4891123511904762</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7490021929824562</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6024166666666667</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
-                ('model', SVC(C=1, class_weight='balanced', random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7285714285714285</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'rbf', 'model__class_weight': 'balanced', 'model__C': 1}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6776677790535152</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5443849194786695</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6289911268915526</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4799864417989418</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7810962301587302</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
-                ('model', SVC(C=5, kernel='sigmoid', random_state=42))])</t>
+                ('model',
+                 SVC(C=3, class_weight='balanced', kernel='poly',
+                     random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7041647241647242</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__kernel': 'poly', 'model__class_weight': 'balanced', 'model__C': 3}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7426144602553902</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5889400356587856</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7567567567567567</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6821270793350787</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5269593253968254</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8713935185185185</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7461249999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', None),
+                ('model', SVC(C=1, kernel='sigmoid', random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7761172161172161</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': RobustScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 1}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6106929038424203</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5198868885743885</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5796088135739609</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4883112599206349</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.689655612244898</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6030902777777778</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 SVC(C=1, class_weight='balanced', kernel='sigmoid',
+                     random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7239285714285714</v>
+        <v>0.76</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__kernel': 'sigmoid', 'model__class_weight': None, 'model__C': 5}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__kernel': 'sigmoid', 'model__class_weight': 'balanced', 'model__C': 1}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7936093157032132</v>
+        <v>0.7986116345103841</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6437831277518777</v>
+        <v>0.6703988546176046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.608695652173913</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.725395209189486</v>
+        <v>0.7335917955453835</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5521510416666666</v>
+        <v>0.6031261574074073</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9106770833333333</v>
+        <v>0.9093309294871794</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8117083333333334</v>
+        <v>0.7994791666666666</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 0 1 1 0 1 1 0 1 0 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
